--- a/modules/user_operate/creator_template.xlsx
+++ b/modules/user_operate/creator_template.xlsx
@@ -32,154 +32,154 @@
     <t>达人用户名</t>
   </si>
   <si>
-    <t>hallieleigh</t>
-  </si>
-  <si>
-    <t>rosario_olala</t>
-  </si>
-  <si>
-    <t>celestete09</t>
-  </si>
-  <si>
-    <t>hairbykatevip</t>
-  </si>
-  <si>
-    <t>bertieisadragon</t>
-  </si>
-  <si>
-    <t>cubatikcubatok</t>
-  </si>
-  <si>
-    <t>odilia.v</t>
-  </si>
-  <si>
-    <t>knoppshopreviews</t>
-  </si>
-  <si>
-    <t>sincerely_sab</t>
-  </si>
-  <si>
-    <t>themrsgriff</t>
-  </si>
-  <si>
-    <t>bossmomjudy</t>
-  </si>
-  <si>
-    <t>love.nlife</t>
-  </si>
-  <si>
-    <t>carmeng_82</t>
-  </si>
-  <si>
-    <t>diane_lixa</t>
-  </si>
-  <si>
-    <t>nurtureandfaith</t>
-  </si>
-  <si>
-    <t>goliveshop</t>
-  </si>
-  <si>
-    <t>aqsas_cuisine1</t>
-  </si>
-  <si>
-    <t>rogorealestate</t>
-  </si>
-  <si>
-    <t>famarivero0924</t>
-  </si>
-  <si>
-    <t>normaperales</t>
-  </si>
-  <si>
-    <t>shopwithgriffin</t>
-  </si>
-  <si>
-    <t>mamabrandee</t>
-  </si>
-  <si>
-    <t>jamanda83</t>
-  </si>
-  <si>
-    <t>lifewithsorii</t>
-  </si>
-  <si>
-    <t>kaikarats</t>
-  </si>
-  <si>
-    <t>murciaalba0</t>
-  </si>
-  <si>
-    <t>angelicshopfinds</t>
-  </si>
-  <si>
-    <t>rosaraudales88</t>
-  </si>
-  <si>
-    <t>alexia.rose19</t>
-  </si>
-  <si>
-    <t>jersey_da_trucker</t>
-  </si>
-  <si>
-    <t>wenddydoblado</t>
-  </si>
-  <si>
-    <t>bradfordthings</t>
-  </si>
-  <si>
-    <t>amber.cosette</t>
-  </si>
-  <si>
-    <t>prestigious1111</t>
-  </si>
-  <si>
-    <t>uhlyssa2.0</t>
-  </si>
-  <si>
-    <t>arezoafghan0</t>
-  </si>
-  <si>
-    <t>frequencyofwellness</t>
-  </si>
-  <si>
-    <t>caejle</t>
-  </si>
-  <si>
-    <t>d3scuentossusa</t>
-  </si>
-  <si>
-    <t>kaleys.customs</t>
-  </si>
-  <si>
-    <t>jendieya</t>
-  </si>
-  <si>
-    <t>lmmac06</t>
-  </si>
-  <si>
-    <t>juansamayoa38</t>
-  </si>
-  <si>
-    <t>morganvaden2222</t>
-  </si>
-  <si>
-    <t>cassiemorris190</t>
-  </si>
-  <si>
-    <t>dboland90</t>
-  </si>
-  <si>
-    <t>marygonzalez3895</t>
-  </si>
-  <si>
-    <t>sizovusa</t>
-  </si>
-  <si>
-    <t>reneegernertt</t>
-  </si>
-  <si>
-    <t>peromedicenmay</t>
+    <t>collectingdustcardshop</t>
+  </si>
+  <si>
+    <t>meletflores</t>
+  </si>
+  <si>
+    <t>blondevixen59</t>
+  </si>
+  <si>
+    <t>thepokepost</t>
+  </si>
+  <si>
+    <t>christianpuroenvivo</t>
+  </si>
+  <si>
+    <t>thebirddogger</t>
+  </si>
+  <si>
+    <t>juancarlosenri1</t>
+  </si>
+  <si>
+    <t>bjsbreaksnmore2.0</t>
+  </si>
+  <si>
+    <t>fang2455ll</t>
+  </si>
+  <si>
+    <t>adamstoppedaging</t>
+  </si>
+  <si>
+    <t>soday.us</t>
+  </si>
+  <si>
+    <t>emefaija5vc</t>
+  </si>
+  <si>
+    <t>shopflashsales</t>
+  </si>
+  <si>
+    <t>pocketnomstcg</t>
+  </si>
+  <si>
+    <t>sarahshopfinds</t>
+  </si>
+  <si>
+    <t>must.haveproducts</t>
+  </si>
+  <si>
+    <t>dangdeals</t>
+  </si>
+  <si>
+    <t>boost_bazaar</t>
+  </si>
+  <si>
+    <t>keri_danielle</t>
+  </si>
+  <si>
+    <t>tori_coope</t>
+  </si>
+  <si>
+    <t>dreasdailydeals</t>
+  </si>
+  <si>
+    <t>emilymayfinds</t>
+  </si>
+  <si>
+    <t>liaorganics</t>
+  </si>
+  <si>
+    <t>anastasiya_hauls</t>
+  </si>
+  <si>
+    <t>omidnightshop</t>
+  </si>
+  <si>
+    <t>leahwatkins8</t>
+  </si>
+  <si>
+    <t>breanacampos</t>
+  </si>
+  <si>
+    <t>onebasicmama</t>
+  </si>
+  <si>
+    <t>allthingsnoble</t>
+  </si>
+  <si>
+    <t>d1neek</t>
+  </si>
+  <si>
+    <t>britney_henderson_</t>
+  </si>
+  <si>
+    <t>triomomjess</t>
+  </si>
+  <si>
+    <t>countrymike33</t>
+  </si>
+  <si>
+    <t>theethanhartzell</t>
+  </si>
+  <si>
+    <t>keepingupwithkaylie</t>
+  </si>
+  <si>
+    <t>vivianinvegas</t>
+  </si>
+  <si>
+    <t>lymonline</t>
+  </si>
+  <si>
+    <t>milamiamor_official</t>
+  </si>
+  <si>
+    <t>unfiltered.reviews</t>
+  </si>
+  <si>
+    <t>sylviegraceee</t>
+  </si>
+  <si>
+    <t>grantsdealz</t>
+  </si>
+  <si>
+    <t>mekaylaburgess</t>
+  </si>
+  <si>
+    <t>texasnurse50</t>
+  </si>
+  <si>
+    <t>yolyca0607</t>
+  </si>
+  <si>
+    <t>catgue20</t>
+  </si>
+  <si>
+    <t>cristina_montenegro</t>
+  </si>
+  <si>
+    <t>cortisolqueenn</t>
+  </si>
+  <si>
+    <t>huitronmau</t>
+  </si>
+  <si>
+    <t>brbvicky</t>
+  </si>
+  <si>
+    <t>ncolettem</t>
   </si>
 </sst>
 </file>
@@ -192,9 +192,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -655,148 +662,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1196,7 @@
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
